--- a/public/excelTemplate.xlsx
+++ b/public/excelTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IET\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\iet\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1E1DD7-EB97-4C9E-889F-59CA6D2F7680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A073705-BC34-47E8-875B-09E6C0835CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B62B1F71-F58B-4874-B848-5B12B257C29F}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Income Tracker</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Put "Income Tracker" for Income and "Expense Tracker" for Expense at the cell A1</t>
   </si>
 </sst>
 </file>
@@ -59,21 +59,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;₱&quot;\ #,##0.00;\ &quot;₱&quot;\ \-#,##0.00;\ &quot;₱&quot;\ 0.00;\ &quot;₱&quot;\ @"/>
+    <numFmt numFmtId="164" formatCode="&quot;₱&quot;\ #,##0.00;\ &quot;₱&quot;\ \-#,##0.00;\ &quot;₱&quot;\ 0.00;\ &quot;₱&quot;\ @"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
     </font>
     <font>
       <b/>
@@ -91,6 +85,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -195,64 +203,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,343 +570,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233DC2E9-5084-499A-AF6F-A8E76E450B22}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="12"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="13"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="12"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="13"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="12"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="12"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="12"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="12"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="12"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="12"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="13"/>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="12"/>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="13"/>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="12"/>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="13"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="12"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="13"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="12"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="12"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="13"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="11"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="13"/>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="12"/>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="13"/>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="12"/>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="10"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="13"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="11"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="2">
+    <mergeCell ref="F1:K3"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
